--- a/Firmas_Terceros.xlsx
+++ b/Firmas_Terceros.xlsx
@@ -449,63 +449,63 @@
         <v>Activo</v>
       </c>
       <c r="D2" t="str">
-        <v>Sobrino (a)</v>
+        <v>Primo (a)</v>
       </c>
       <c r="E2" t="str">
         <v>Mancomunada</v>
       </c>
       <c r="F2" t="str">
-        <v>005-001-56843</v>
+        <v>005-002-000000002</v>
       </c>
       <c r="G2">
-        <v>2429</v>
+        <v>4</v>
       </c>
       <c r="H2" t="str">
-        <v>Oficina Principal</v>
+        <v>Filial La Entrada Copán</v>
       </c>
       <c r="I2" s="1">
-        <v>44615.386782407404</v>
+        <v>44726.3946875</v>
       </c>
       <c r="J2" t="str">
-        <v>ARIANI ALVARADO</v>
+        <v>MANUEL VILLEDA</v>
       </c>
       <c r="K2" t="str">
-        <v>Cansado</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>MANUEL JESUS VILLEDA GOMEZ</v>
+        <v xml:space="preserve">JOSUE LOPEZ  </v>
       </c>
       <c r="B3" t="str">
-        <v>0401199801225</v>
+        <v>0401198500364</v>
       </c>
       <c r="C3" t="str">
-        <v>Activo</v>
+        <v>Inactivo</v>
       </c>
       <c r="D3" t="str">
-        <v>Primo (a)</v>
+        <v>Cuñado (a)</v>
       </c>
       <c r="E3" t="str">
-        <v>Mancomunada</v>
+        <v>Indistinta</v>
       </c>
       <c r="F3" t="str">
-        <v>005-001-56843</v>
+        <v>005-002-000000050</v>
       </c>
       <c r="G3">
-        <v>2429</v>
+        <v>77</v>
       </c>
       <c r="H3" t="str">
         <v>Oficina Principal</v>
       </c>
       <c r="I3" s="1">
-        <v>44615.386782407404</v>
+        <v>44720.619988425926</v>
       </c>
       <c r="J3" t="str">
-        <v>DULCE MEJIA</v>
+        <v>MANUEL VILLEDA</v>
       </c>
       <c r="K3" t="str">
-        <v>Cansado</v>
+        <v>el afiliado no quiso brindar mucha información</v>
       </c>
     </row>
     <row r="4">
@@ -519,63 +519,63 @@
         <v>Activo</v>
       </c>
       <c r="D4" t="str">
-        <v>Primo (a)</v>
+        <v>Sobrino (a)</v>
       </c>
       <c r="E4" t="str">
         <v>Mancomunada</v>
       </c>
       <c r="F4" t="str">
-        <v>005-002-000000002</v>
+        <v>005-001-56843</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>2429</v>
       </c>
       <c r="H4" t="str">
-        <v>Filial La Entrada Copán</v>
+        <v>Oficina Principal</v>
       </c>
       <c r="I4" s="1">
-        <v>44726.3946875</v>
+        <v>44615.386782407404</v>
       </c>
       <c r="J4" t="str">
-        <v>MANUEL VILLEDA</v>
+        <v>ARIANI ALVARADO</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>Cansado</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve">JOSUE LOPEZ  </v>
+        <v>MANUEL JESUS VILLEDA GOMEZ</v>
       </c>
       <c r="B5" t="str">
-        <v>0401198500364</v>
+        <v>0401199801225</v>
       </c>
       <c r="C5" t="str">
-        <v>Inactivo</v>
+        <v>Activo</v>
       </c>
       <c r="D5" t="str">
-        <v>Cuñado (a)</v>
+        <v>Primo (a)</v>
       </c>
       <c r="E5" t="str">
-        <v>Indistinta</v>
+        <v>Mancomunada</v>
       </c>
       <c r="F5" t="str">
-        <v>005-002-000000050</v>
+        <v>005-001-56843</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>2429</v>
       </c>
       <c r="H5" t="str">
         <v>Oficina Principal</v>
       </c>
       <c r="I5" s="1">
-        <v>44720.619988425926</v>
+        <v>44615.386782407404</v>
       </c>
       <c r="J5" t="str">
-        <v>Manuel Villeda</v>
+        <v>DULCE MEJIA</v>
       </c>
       <c r="K5" t="str">
-        <v>el afiliado no quiso brindar mucha información</v>
+        <v>Cansado</v>
       </c>
     </row>
   </sheetData>

--- a/Firmas_Terceros.xlsx
+++ b/Firmas_Terceros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="students" sheetId="1" r:id="rId1"/>
+    <sheet name="Firmas a Terceros" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -440,107 +440,107 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MANUEL JESUS VILLEDA GOMEZ</v>
+        <v xml:space="preserve">TITO ROBLES  </v>
       </c>
       <c r="B2" t="str">
-        <v>0401199801225</v>
+        <v>0401198500125</v>
       </c>
       <c r="C2" t="str">
-        <v>Activo</v>
+        <v>Inactivo</v>
       </c>
       <c r="D2" t="str">
-        <v>Primo (a)</v>
+        <v>Tio (a)</v>
       </c>
       <c r="E2" t="str">
-        <v>Mancomunada</v>
+        <v>Indistinta</v>
       </c>
       <c r="F2" t="str">
-        <v>005-002-000000002</v>
+        <v>005-004-000000010</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H2" t="str">
-        <v>Filial La Entrada Copán</v>
+        <v>Filial Gracias Lempira</v>
       </c>
       <c r="I2" s="1">
-        <v>44726.3946875</v>
+        <v>44734.61797453704</v>
       </c>
       <c r="J2" t="str">
         <v>MANUEL VILLEDA</v>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>el tio no tiene cuenta</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve">JOSUE LOPEZ  </v>
+        <v>MANUEL JESUS VILLEDA GOMEZ</v>
       </c>
       <c r="B3" t="str">
-        <v>0401198500364</v>
+        <v>0401199801225</v>
       </c>
       <c r="C3" t="str">
-        <v>Inactivo</v>
+        <v>Activo</v>
       </c>
       <c r="D3" t="str">
-        <v>Cuñado (a)</v>
+        <v>Primo (a)</v>
       </c>
       <c r="E3" t="str">
-        <v>Indistinta</v>
+        <v>Mancomunada</v>
       </c>
       <c r="F3" t="str">
-        <v>005-002-000000050</v>
+        <v>005-002-000000002</v>
       </c>
       <c r="G3">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="H3" t="str">
-        <v>Oficina Principal</v>
+        <v>Filial La Entrada Copán</v>
       </c>
       <c r="I3" s="1">
-        <v>44720.619988425926</v>
+        <v>44726.3946875</v>
       </c>
       <c r="J3" t="str">
         <v>MANUEL VILLEDA</v>
       </c>
       <c r="K3" t="str">
-        <v>el afiliado no quiso brindar mucha información</v>
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>MANUEL JESUS VILLEDA GOMEZ</v>
+        <v xml:space="preserve">JOSUE LOPEZ  </v>
       </c>
       <c r="B4" t="str">
-        <v>0401199801225</v>
+        <v>0401198500364</v>
       </c>
       <c r="C4" t="str">
-        <v>Activo</v>
+        <v>Inactivo</v>
       </c>
       <c r="D4" t="str">
-        <v>Sobrino (a)</v>
+        <v>Cuñado (a)</v>
       </c>
       <c r="E4" t="str">
-        <v>Mancomunada</v>
+        <v>Indistinta</v>
       </c>
       <c r="F4" t="str">
-        <v>005-001-56843</v>
+        <v>005-002-000000050</v>
       </c>
       <c r="G4">
-        <v>2429</v>
+        <v>77</v>
       </c>
       <c r="H4" t="str">
         <v>Oficina Principal</v>
       </c>
       <c r="I4" s="1">
-        <v>44615.386782407404</v>
+        <v>44720.619988425926</v>
       </c>
       <c r="J4" t="str">
-        <v>ARIANI ALVARADO</v>
+        <v>MANUEL VILLEDA</v>
       </c>
       <c r="K4" t="str">
-        <v>Cansado</v>
+        <v>el afiliado no quiso brindar mucha información</v>
       </c>
     </row>
     <row r="5">
@@ -554,7 +554,7 @@
         <v>Activo</v>
       </c>
       <c r="D5" t="str">
-        <v>Primo (a)</v>
+        <v>Sobrino (a)</v>
       </c>
       <c r="E5" t="str">
         <v>Mancomunada</v>
@@ -572,15 +572,50 @@
         <v>44615.386782407404</v>
       </c>
       <c r="J5" t="str">
+        <v>ARIANI ALVARADO</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Cansado</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>MANUEL JESUS VILLEDA GOMEZ</v>
+      </c>
+      <c r="B6" t="str">
+        <v>0401199801225</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Activo</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Primo (a)</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Mancomunada</v>
+      </c>
+      <c r="F6" t="str">
+        <v>005-001-56843</v>
+      </c>
+      <c r="G6">
+        <v>2429</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Oficina Principal</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44615.386782407404</v>
+      </c>
+      <c r="J6" t="str">
         <v>DULCE MEJIA</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K6" t="str">
         <v>Cansado</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K6"/>
   </ignoredErrors>
 </worksheet>
 </file>